--- a/CuadreActivitatsProjecteGP1.xlsx
+++ b/CuadreActivitatsProjecteGP1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fje-my.sharepoint.com/personal/15583956_clot_fje_edu/Documents/ASIX3lmao/Global Project/GP1Teoria/GP1_PART2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fje-my.sharepoint.com/personal/15583956_clot_fje_edu/Documents/ASIX3lmao/Global Project/GP1_express/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{C92E485C-A1B2-4CE5-9AE0-6A197D22F2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E58CDA7C-6669-4F13-A911-4CA7D86D0491}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{C92E485C-A1B2-4CE5-9AE0-6A197D22F2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E43E9C54-7B29-425B-BFB9-69C2336A4EE0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CAE42757-9E63-40A1-B2C0-13757DB53D44}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>5d</t>
   </si>
   <si>
-    <t>B &amp;&amp; C &amp;&amp; D</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>VueJS</t>
+  </si>
+  <si>
+    <t>B / C / D</t>
   </si>
 </sst>
 </file>
@@ -209,10 +209,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,7 +511,7 @@
   <dimension ref="C2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
@@ -611,7 +607,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
@@ -633,10 +629,10 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
